--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sdc2-Ptprj.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sdc2-Ptprj.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6766796666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="H2">
-        <v>2.030039</v>
+        <v>8.024505</v>
       </c>
       <c r="I2">
-        <v>0.009246943144590633</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="J2">
-        <v>0.009246943144590635</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8690176666666666</v>
+        <v>2.539743666666667</v>
       </c>
       <c r="N2">
-        <v>2.607053</v>
+        <v>7.619231000000001</v>
       </c>
       <c r="O2">
-        <v>0.004684547990100866</v>
+        <v>0.01651952868566261</v>
       </c>
       <c r="P2">
-        <v>0.004684547990100865</v>
+        <v>0.01651952868566261</v>
       </c>
       <c r="Q2">
-        <v>0.5880465850074444</v>
+        <v>6.793395250628333</v>
       </c>
       <c r="R2">
-        <v>5.292419265066999</v>
+        <v>61.140557255655</v>
       </c>
       <c r="S2">
-        <v>4.331774892256903E-05</v>
+        <v>0.0007382780252226063</v>
       </c>
       <c r="T2">
-        <v>4.331774892256903E-05</v>
+        <v>0.0007382780252226062</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6766796666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="H3">
-        <v>2.030039</v>
+        <v>8.024505</v>
       </c>
       <c r="I3">
-        <v>0.009246943144590633</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="J3">
-        <v>0.009246943144590635</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>23.192627</v>
       </c>
       <c r="O3">
-        <v>0.04167424835552215</v>
+        <v>0.05028476850516451</v>
       </c>
       <c r="P3">
-        <v>0.04167424835552214</v>
+        <v>0.05028476850516451</v>
       </c>
       <c r="Q3">
-        <v>5.231326369161445</v>
+        <v>20.67881681384833</v>
       </c>
       <c r="R3">
-        <v>47.081937322453</v>
+        <v>186.109351324635</v>
       </c>
       <c r="S3">
-        <v>0.0003853594051370631</v>
+        <v>0.002247288061129069</v>
       </c>
       <c r="T3">
-        <v>0.0003853594051370631</v>
+        <v>0.002247288061129069</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6766796666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="H4">
-        <v>2.030039</v>
+        <v>8.024505</v>
       </c>
       <c r="I4">
-        <v>0.009246943144590633</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="J4">
-        <v>0.009246943144590635</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>67.01802199999999</v>
+        <v>68.48026266666666</v>
       </c>
       <c r="N4">
-        <v>201.054066</v>
+        <v>205.440788</v>
       </c>
       <c r="O4">
-        <v>0.3612689963655924</v>
+        <v>0.4454235592241697</v>
       </c>
       <c r="P4">
-        <v>0.3612689963655923</v>
+        <v>0.4454235592241697</v>
       </c>
       <c r="Q4">
-        <v>45.34973278761932</v>
+        <v>183.1734033899933</v>
       </c>
       <c r="R4">
-        <v>408.147595088574</v>
+        <v>1648.56063050994</v>
       </c>
       <c r="S4">
-        <v>0.003340633869295953</v>
+        <v>0.01990652590331178</v>
       </c>
       <c r="T4">
-        <v>0.003340633869295953</v>
+        <v>0.01990652590331177</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6766796666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="H5">
-        <v>2.030039</v>
+        <v>8.024505</v>
       </c>
       <c r="I5">
-        <v>0.009246943144590633</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="J5">
-        <v>0.009246943144590635</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.518443</v>
+        <v>3.06494</v>
       </c>
       <c r="N5">
-        <v>10.555329</v>
+        <v>9.19482</v>
       </c>
       <c r="O5">
-        <v>0.01896660530177307</v>
+        <v>0.01993561984792222</v>
       </c>
       <c r="P5">
-        <v>0.01896660530177307</v>
+        <v>0.01993561984792222</v>
       </c>
       <c r="Q5">
-        <v>2.380858836425667</v>
+        <v>8.1982087849</v>
       </c>
       <c r="R5">
-        <v>21.427729527831</v>
+        <v>73.78387906409999</v>
       </c>
       <c r="S5">
-        <v>0.0001753831208713868</v>
+        <v>0.0008909473346952368</v>
       </c>
       <c r="T5">
-        <v>0.0001753831208713869</v>
+        <v>0.0008909473346952367</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6766796666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="H6">
-        <v>2.030039</v>
+        <v>8.024505</v>
       </c>
       <c r="I6">
-        <v>0.009246943144590633</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="J6">
-        <v>0.009246943144590635</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.17078333333333</v>
+        <v>26.60285633333334</v>
       </c>
       <c r="N6">
-        <v>81.51235</v>
+        <v>79.80856900000001</v>
       </c>
       <c r="O6">
-        <v>0.1464674923604922</v>
+        <v>0.1730358280195447</v>
       </c>
       <c r="P6">
-        <v>0.1464674923604922</v>
+        <v>0.1730358280195447</v>
       </c>
       <c r="Q6">
-        <v>18.38591660907222</v>
+        <v>71.15825122037167</v>
       </c>
       <c r="R6">
-        <v>165.47324948165</v>
+        <v>640.424260983345</v>
       </c>
       <c r="S6">
-        <v>0.001354376574388234</v>
+        <v>0.007733183666063166</v>
       </c>
       <c r="T6">
-        <v>0.001354376574388234</v>
+        <v>0.007733183666063164</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6766796666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="H7">
-        <v>2.030039</v>
+        <v>8.024505</v>
       </c>
       <c r="I7">
-        <v>0.009246943144590633</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="J7">
-        <v>0.009246943144590635</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.20011933333333</v>
+        <v>45.323218</v>
       </c>
       <c r="N7">
-        <v>237.600358</v>
+        <v>135.969654</v>
       </c>
       <c r="O7">
-        <v>0.4269381096265194</v>
+        <v>0.2948006957175362</v>
       </c>
       <c r="P7">
-        <v>0.4269381096265193</v>
+        <v>0.2948006957175362</v>
       </c>
       <c r="Q7">
-        <v>53.59311035044022</v>
+        <v>121.23212981903</v>
       </c>
       <c r="R7">
-        <v>482.337993153962</v>
+        <v>1091.08916837127</v>
       </c>
       <c r="S7">
-        <v>0.003947872425975428</v>
+        <v>0.01317500514754324</v>
       </c>
       <c r="T7">
-        <v>0.003947872425975428</v>
+        <v>0.01317500514754324</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>137.100929</v>
       </c>
       <c r="I8">
-        <v>0.624502531987591</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="J8">
-        <v>0.6245025319875911</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8690176666666666</v>
+        <v>2.539743666666667</v>
       </c>
       <c r="N8">
-        <v>2.607053</v>
+        <v>7.619231000000001</v>
       </c>
       <c r="O8">
-        <v>0.004684547990100866</v>
+        <v>0.01651952868566261</v>
       </c>
       <c r="P8">
-        <v>0.004684547990100865</v>
+        <v>0.01651952868566261</v>
       </c>
       <c r="Q8">
-        <v>39.71437647247078</v>
+        <v>116.0670720406221</v>
       </c>
       <c r="R8">
-        <v>357.4293882522369</v>
+        <v>1044.603648365599</v>
       </c>
       <c r="S8">
-        <v>0.002925512081035371</v>
+        <v>0.01261368808646823</v>
       </c>
       <c r="T8">
-        <v>0.002925512081035371</v>
+        <v>0.01261368808646823</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>137.100929</v>
       </c>
       <c r="I9">
-        <v>0.624502531987591</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="J9">
-        <v>0.6245025319875911</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>23.192627</v>
       </c>
       <c r="O9">
-        <v>0.04167424835552215</v>
+        <v>0.05028476850516451</v>
       </c>
       <c r="P9">
-        <v>0.04167424835552214</v>
+        <v>0.05028476850516451</v>
       </c>
       <c r="Q9">
         <v>353.3034119611648</v>
@@ -1013,10 +1013,10 @@
         <v>3179.730707650484</v>
       </c>
       <c r="S9">
-        <v>0.02602567361670328</v>
+        <v>0.038395549745611</v>
       </c>
       <c r="T9">
-        <v>0.02602567361670328</v>
+        <v>0.038395549745611</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>137.100929</v>
       </c>
       <c r="I10">
-        <v>0.624502531987591</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="J10">
-        <v>0.6245025319875911</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>67.01802199999999</v>
+        <v>68.48026266666666</v>
       </c>
       <c r="N10">
-        <v>201.054066</v>
+        <v>205.440788</v>
       </c>
       <c r="O10">
-        <v>0.3612689963655924</v>
+        <v>0.4454235592241697</v>
       </c>
       <c r="P10">
-        <v>0.3612689963655923</v>
+        <v>0.4454235592241697</v>
       </c>
       <c r="Q10">
-        <v>3062.744358647479</v>
+        <v>3129.569209921339</v>
       </c>
       <c r="R10">
-        <v>27564.69922782731</v>
+        <v>28166.12288929205</v>
       </c>
       <c r="S10">
-        <v>0.2256134029589283</v>
+        <v>0.3401086041452537</v>
       </c>
       <c r="T10">
-        <v>0.2256134029589283</v>
+        <v>0.3401086041452537</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>137.100929</v>
       </c>
       <c r="I11">
-        <v>0.624502531987591</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="J11">
-        <v>0.6245025319875911</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.518443</v>
+        <v>3.06494</v>
       </c>
       <c r="N11">
-        <v>10.555329</v>
+        <v>9.19482</v>
       </c>
       <c r="O11">
-        <v>0.01896660530177307</v>
+        <v>0.01993561984792222</v>
       </c>
       <c r="P11">
-        <v>0.01896660530177307</v>
+        <v>0.01993561984792222</v>
       </c>
       <c r="Q11">
-        <v>160.7939346445157</v>
+        <v>140.0687071097533</v>
       </c>
       <c r="R11">
-        <v>1447.145411800641</v>
+        <v>1260.61836398778</v>
       </c>
       <c r="S11">
-        <v>0.01184469303416655</v>
+        <v>0.01522208625663401</v>
       </c>
       <c r="T11">
-        <v>0.01184469303416655</v>
+        <v>0.01522208625663401</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>137.100929</v>
       </c>
       <c r="I12">
-        <v>0.624502531987591</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="J12">
-        <v>0.6245025319875911</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>27.17078333333333</v>
+        <v>26.60285633333334</v>
       </c>
       <c r="N12">
-        <v>81.51235</v>
+        <v>79.80856900000001</v>
       </c>
       <c r="O12">
-        <v>0.1464674923604922</v>
+        <v>0.1730358280195447</v>
       </c>
       <c r="P12">
-        <v>0.1464674923604922</v>
+        <v>0.1730358280195447</v>
       </c>
       <c r="Q12">
-        <v>1241.713212219239</v>
+        <v>1215.758772451178</v>
       </c>
       <c r="R12">
-        <v>11175.41890997315</v>
+        <v>10941.8289520606</v>
       </c>
       <c r="S12">
-        <v>0.09146931983300054</v>
+        <v>0.1321236219237057</v>
       </c>
       <c r="T12">
-        <v>0.09146931983300054</v>
+        <v>0.1321236219237057</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>137.100929</v>
       </c>
       <c r="I13">
-        <v>0.624502531987591</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="J13">
-        <v>0.6245025319875911</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.20011933333333</v>
+        <v>45.323218</v>
       </c>
       <c r="N13">
-        <v>237.600358</v>
+        <v>135.969654</v>
       </c>
       <c r="O13">
-        <v>0.4269381096265194</v>
+        <v>0.2948006957175362</v>
       </c>
       <c r="P13">
-        <v>0.4269381096265193</v>
+        <v>0.2948006957175362</v>
       </c>
       <c r="Q13">
-        <v>3619.469979170287</v>
+        <v>2071.285097689841</v>
       </c>
       <c r="R13">
-        <v>32575.22981253258</v>
+        <v>18641.56587920857</v>
       </c>
       <c r="S13">
-        <v>0.266623930463757</v>
+        <v>0.2250986752837665</v>
       </c>
       <c r="T13">
-        <v>0.266623930463757</v>
+        <v>0.2250986752837665</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>26.65531</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="H14">
-        <v>79.96592999999999</v>
+        <v>34.382999</v>
       </c>
       <c r="I14">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="J14">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.8690176666666666</v>
+        <v>2.539743666666667</v>
       </c>
       <c r="N14">
-        <v>2.607053</v>
+        <v>7.619231000000001</v>
       </c>
       <c r="O14">
-        <v>0.004684547990100866</v>
+        <v>0.01651952868566261</v>
       </c>
       <c r="P14">
-        <v>0.004684547990100865</v>
+        <v>0.01651952868566261</v>
       </c>
       <c r="Q14">
-        <v>23.16393530047666</v>
+        <v>29.10800131708545</v>
       </c>
       <c r="R14">
-        <v>208.4754177042899</v>
+        <v>261.972011853769</v>
       </c>
       <c r="S14">
-        <v>0.001706343611181721</v>
+        <v>0.00316333687909109</v>
       </c>
       <c r="T14">
-        <v>0.001706343611181721</v>
+        <v>0.00316333687909109</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>26.65531</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="H15">
-        <v>79.96592999999999</v>
+        <v>34.382999</v>
       </c>
       <c r="I15">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="J15">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>23.192627</v>
       </c>
       <c r="O15">
-        <v>0.04167424835552215</v>
+        <v>0.05028476850516451</v>
       </c>
       <c r="P15">
-        <v>0.04167424835552214</v>
+        <v>0.05028476850516451</v>
       </c>
       <c r="Q15">
-        <v>206.0688874664567</v>
+        <v>88.60356343870811</v>
       </c>
       <c r="R15">
-        <v>1854.61998719811</v>
+        <v>797.4320709483731</v>
       </c>
       <c r="S15">
-        <v>0.01517981832665876</v>
+        <v>0.009629067856336651</v>
       </c>
       <c r="T15">
-        <v>0.01517981832665876</v>
+        <v>0.009629067856336651</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>26.65531</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="H16">
-        <v>79.96592999999999</v>
+        <v>34.382999</v>
       </c>
       <c r="I16">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="J16">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>67.01802199999999</v>
+        <v>68.48026266666666</v>
       </c>
       <c r="N16">
-        <v>201.054066</v>
+        <v>205.440788</v>
       </c>
       <c r="O16">
-        <v>0.3612689963655924</v>
+        <v>0.4454235592241697</v>
       </c>
       <c r="P16">
-        <v>0.3612689963655923</v>
+        <v>0.4454235592241697</v>
       </c>
       <c r="Q16">
-        <v>1786.38615199682</v>
+        <v>784.8522675959124</v>
       </c>
       <c r="R16">
-        <v>16077.47536797138</v>
+        <v>7063.67040836321</v>
       </c>
       <c r="S16">
-        <v>0.1315920010146353</v>
+        <v>0.08529448984417642</v>
       </c>
       <c r="T16">
-        <v>0.1315920010146353</v>
+        <v>0.08529448984417641</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>26.65531</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="H17">
-        <v>79.96592999999999</v>
+        <v>34.382999</v>
       </c>
       <c r="I17">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="J17">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.518443</v>
+        <v>3.06494</v>
       </c>
       <c r="N17">
-        <v>10.555329</v>
+        <v>9.19482</v>
       </c>
       <c r="O17">
-        <v>0.01896660530177307</v>
+        <v>0.01993561984792222</v>
       </c>
       <c r="P17">
-        <v>0.01896660530177307</v>
+        <v>0.01993561984792222</v>
       </c>
       <c r="Q17">
-        <v>93.78518888232999</v>
+        <v>35.12727631835333</v>
       </c>
       <c r="R17">
-        <v>844.0666999409699</v>
+        <v>316.14548686518</v>
       </c>
       <c r="S17">
-        <v>0.006908573858326297</v>
+        <v>0.003817486725708189</v>
       </c>
       <c r="T17">
-        <v>0.006908573858326297</v>
+        <v>0.003817486725708189</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>26.65531</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="H18">
-        <v>79.96592999999999</v>
+        <v>34.382999</v>
       </c>
       <c r="I18">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="J18">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>27.17078333333333</v>
+        <v>26.60285633333334</v>
       </c>
       <c r="N18">
-        <v>81.51235</v>
+        <v>79.80856900000001</v>
       </c>
       <c r="O18">
-        <v>0.1464674923604922</v>
+        <v>0.1730358280195447</v>
       </c>
       <c r="P18">
-        <v>0.1464674923604922</v>
+        <v>0.1730358280195447</v>
       </c>
       <c r="Q18">
-        <v>724.2456526928332</v>
+        <v>304.8953275687145</v>
       </c>
       <c r="R18">
-        <v>6518.210874235499</v>
+        <v>2744.057948118431</v>
       </c>
       <c r="S18">
-        <v>0.05335069047499548</v>
+        <v>0.03313475987080401</v>
       </c>
       <c r="T18">
-        <v>0.05335069047499547</v>
+        <v>0.03313475987080401</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,14 +1582,14 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>26.65531</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="H19">
-        <v>79.96592999999999</v>
+        <v>34.382999</v>
       </c>
       <c r="I19">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="J19">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.20011933333333</v>
+        <v>45.323218</v>
       </c>
       <c r="N19">
-        <v>237.600358</v>
+        <v>135.969654</v>
       </c>
       <c r="O19">
-        <v>0.4269381096265194</v>
+        <v>0.2948006957175362</v>
       </c>
       <c r="P19">
-        <v>0.4269381096265193</v>
+        <v>0.2948006957175362</v>
       </c>
       <c r="Q19">
-        <v>2111.103732866993</v>
+        <v>519.4493863902607</v>
       </c>
       <c r="R19">
-        <v>18999.93359580294</v>
+        <v>4675.044477512345</v>
       </c>
       <c r="S19">
-        <v>0.1555119335463413</v>
+        <v>0.05645160527820397</v>
       </c>
       <c r="T19">
-        <v>0.1555119335463413</v>
+        <v>0.05645160527820396</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.1464426666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="H20">
-        <v>0.439328</v>
+        <v>0.016902</v>
       </c>
       <c r="I20">
-        <v>0.002001164035679469</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="J20">
-        <v>0.00200116403567947</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.8690176666666666</v>
+        <v>2.539743666666667</v>
       </c>
       <c r="N20">
-        <v>2.607053</v>
+        <v>7.619231000000001</v>
       </c>
       <c r="O20">
-        <v>0.004684547990100866</v>
+        <v>0.01651952868566261</v>
       </c>
       <c r="P20">
-        <v>0.004684547990100865</v>
+        <v>0.01651952868566261</v>
       </c>
       <c r="Q20">
-        <v>0.1272612644871111</v>
+        <v>0.014308915818</v>
       </c>
       <c r="R20">
-        <v>1.145351380384</v>
+        <v>0.128780242362</v>
       </c>
       <c r="S20">
-        <v>9.374548961204394E-06</v>
+        <v>1.555033635384674E-06</v>
       </c>
       <c r="T20">
-        <v>9.374548961204394E-06</v>
+        <v>1.555033635384674E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.1464426666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="H21">
-        <v>0.439328</v>
+        <v>0.016902</v>
       </c>
       <c r="I21">
-        <v>0.002001164035679469</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="J21">
-        <v>0.00200116403567947</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>23.192627</v>
       </c>
       <c r="O21">
-        <v>0.04167424835552215</v>
+        <v>0.05028476850516451</v>
       </c>
       <c r="P21">
-        <v>0.04167424835552214</v>
+        <v>0.05028476850516451</v>
       </c>
       <c r="Q21">
-        <v>1.132130048295111</v>
+        <v>0.043555753506</v>
       </c>
       <c r="R21">
-        <v>10.189170434656</v>
+        <v>0.3920017815540001</v>
       </c>
       <c r="S21">
-        <v>8.339700702304518E-05</v>
+        <v>4.733458675544913E-06</v>
       </c>
       <c r="T21">
-        <v>8.339700702304519E-05</v>
+        <v>4.733458675544913E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,13 +1768,13 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1783,16 +1783,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.1464426666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="H22">
-        <v>0.439328</v>
+        <v>0.016902</v>
       </c>
       <c r="I22">
-        <v>0.002001164035679469</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="J22">
-        <v>0.00200116403567947</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>67.01802199999999</v>
+        <v>68.48026266666666</v>
       </c>
       <c r="N22">
-        <v>201.054066</v>
+        <v>205.440788</v>
       </c>
       <c r="O22">
-        <v>0.3612689963655924</v>
+        <v>0.4454235592241697</v>
       </c>
       <c r="P22">
-        <v>0.3612689963655923</v>
+        <v>0.4454235592241697</v>
       </c>
       <c r="Q22">
-        <v>9.814297856405332</v>
+        <v>0.385817799864</v>
       </c>
       <c r="R22">
-        <v>88.32868070764799</v>
+        <v>3.472360198776</v>
       </c>
       <c r="S22">
-        <v>0.0007229585227328403</v>
+        <v>4.192907859335568E-05</v>
       </c>
       <c r="T22">
-        <v>0.0007229585227328404</v>
+        <v>4.192907859335568E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
@@ -1845,16 +1845,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.1464426666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="H23">
-        <v>0.439328</v>
+        <v>0.016902</v>
       </c>
       <c r="I23">
-        <v>0.002001164035679469</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="J23">
-        <v>0.00200116403567947</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.518443</v>
+        <v>3.06494</v>
       </c>
       <c r="N23">
-        <v>10.555329</v>
+        <v>9.19482</v>
       </c>
       <c r="O23">
-        <v>0.01896660530177307</v>
+        <v>0.01993561984792222</v>
       </c>
       <c r="P23">
-        <v>0.01896660530177307</v>
+        <v>0.01993561984792222</v>
       </c>
       <c r="Q23">
-        <v>0.5152501754346667</v>
+        <v>0.01726787196</v>
       </c>
       <c r="R23">
-        <v>4.637251578912</v>
+        <v>0.15541084764</v>
       </c>
       <c r="S23">
-        <v>3.795528840883581E-05</v>
+        <v>1.876600718800586E-06</v>
       </c>
       <c r="T23">
-        <v>3.795528840883581E-05</v>
+        <v>1.876600718800585E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1907,16 +1907,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.1464426666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="H24">
-        <v>0.439328</v>
+        <v>0.016902</v>
       </c>
       <c r="I24">
-        <v>0.002001164035679469</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="J24">
-        <v>0.00200116403567947</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>27.17078333333333</v>
+        <v>26.60285633333334</v>
       </c>
       <c r="N24">
-        <v>81.51235</v>
+        <v>79.80856900000001</v>
       </c>
       <c r="O24">
-        <v>0.1464674923604922</v>
+        <v>0.1730358280195447</v>
       </c>
       <c r="P24">
-        <v>0.1464674923604922</v>
+        <v>0.1730358280195447</v>
       </c>
       <c r="Q24">
-        <v>3.978961966755556</v>
+        <v>0.149880492582</v>
       </c>
       <c r="R24">
-        <v>35.8106577008</v>
+        <v>1.348924433238</v>
       </c>
       <c r="S24">
-        <v>0.0002931054781079744</v>
+        <v>1.628839041458627E-05</v>
       </c>
       <c r="T24">
-        <v>0.0002931054781079744</v>
+        <v>1.628839041458627E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1969,16 +1969,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.1464426666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="H25">
-        <v>0.439328</v>
+        <v>0.016902</v>
       </c>
       <c r="I25">
-        <v>0.002001164035679469</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="J25">
-        <v>0.00200116403567947</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,400 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.20011933333333</v>
+        <v>45.323218</v>
       </c>
       <c r="N25">
-        <v>237.600358</v>
+        <v>135.969654</v>
       </c>
       <c r="O25">
-        <v>0.4269381096265194</v>
+        <v>0.2948006957175362</v>
       </c>
       <c r="P25">
-        <v>0.4269381096265193</v>
+        <v>0.2948006957175362</v>
       </c>
       <c r="Q25">
-        <v>11.59827667549156</v>
+        <v>0.255351010212</v>
       </c>
       <c r="R25">
-        <v>104.384490079424</v>
+        <v>2.298159091908</v>
       </c>
       <c r="S25">
-        <v>0.0008543731904455691</v>
+        <v>2.77504889091322E-05</v>
       </c>
       <c r="T25">
-        <v>0.0008543731904455691</v>
+        <v>2.775048890913219E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.009676000000000001</v>
+      </c>
+      <c r="H26">
+        <v>0.029028</v>
+      </c>
+      <c r="I26">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="J26">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.539743666666667</v>
+      </c>
+      <c r="N26">
+        <v>7.619231000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.01651952868566261</v>
+      </c>
+      <c r="P26">
+        <v>0.01651952868566261</v>
+      </c>
+      <c r="Q26">
+        <v>0.02457455971866667</v>
+      </c>
+      <c r="R26">
+        <v>0.221171037468</v>
+      </c>
+      <c r="S26">
+        <v>2.670661245293239E-06</v>
+      </c>
+      <c r="T26">
+        <v>2.670661245293238E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.009676000000000001</v>
+      </c>
+      <c r="H27">
+        <v>0.029028</v>
+      </c>
+      <c r="I27">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="J27">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>7.730875666666667</v>
+      </c>
+      <c r="N27">
+        <v>23.192627</v>
+      </c>
+      <c r="O27">
+        <v>0.05028476850516451</v>
+      </c>
+      <c r="P27">
+        <v>0.05028476850516451</v>
+      </c>
+      <c r="Q27">
+        <v>0.07480395295066668</v>
+      </c>
+      <c r="R27">
+        <v>0.6732355765560001</v>
+      </c>
+      <c r="S27">
+        <v>8.129383412242205E-06</v>
+      </c>
+      <c r="T27">
+        <v>8.129383412242205E-06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.009676000000000001</v>
+      </c>
+      <c r="H28">
+        <v>0.029028</v>
+      </c>
+      <c r="I28">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="J28">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>68.48026266666666</v>
+      </c>
+      <c r="N28">
+        <v>205.440788</v>
+      </c>
+      <c r="O28">
+        <v>0.4454235592241697</v>
+      </c>
+      <c r="P28">
+        <v>0.4454235592241697</v>
+      </c>
+      <c r="Q28">
+        <v>0.6626150215626666</v>
+      </c>
+      <c r="R28">
+        <v>5.963535194064</v>
+      </c>
+      <c r="S28">
+        <v>7.201025283445325E-05</v>
+      </c>
+      <c r="T28">
+        <v>7.201025283445324E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.009676000000000001</v>
+      </c>
+      <c r="H29">
+        <v>0.029028</v>
+      </c>
+      <c r="I29">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="J29">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>3.06494</v>
+      </c>
+      <c r="N29">
+        <v>9.19482</v>
+      </c>
+      <c r="O29">
+        <v>0.01993561984792222</v>
+      </c>
+      <c r="P29">
+        <v>0.01993561984792222</v>
+      </c>
+      <c r="Q29">
+        <v>0.02965635944</v>
+      </c>
+      <c r="R29">
+        <v>0.26690723496</v>
+      </c>
+      <c r="S29">
+        <v>3.222930165977009E-06</v>
+      </c>
+      <c r="T29">
+        <v>3.222930165977009E-06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.009676000000000001</v>
+      </c>
+      <c r="H30">
+        <v>0.029028</v>
+      </c>
+      <c r="I30">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="J30">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>26.60285633333334</v>
+      </c>
+      <c r="N30">
+        <v>79.80856900000001</v>
+      </c>
+      <c r="O30">
+        <v>0.1730358280195447</v>
+      </c>
+      <c r="P30">
+        <v>0.1730358280195447</v>
+      </c>
+      <c r="Q30">
+        <v>0.2574092378813334</v>
+      </c>
+      <c r="R30">
+        <v>2.316683140932</v>
+      </c>
+      <c r="S30">
+        <v>2.797416855724828E-05</v>
+      </c>
+      <c r="T30">
+        <v>2.797416855724827E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.009676000000000001</v>
+      </c>
+      <c r="H31">
+        <v>0.029028</v>
+      </c>
+      <c r="I31">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="J31">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>45.323218</v>
+      </c>
+      <c r="N31">
+        <v>135.969654</v>
+      </c>
+      <c r="O31">
+        <v>0.2948006957175362</v>
+      </c>
+      <c r="P31">
+        <v>0.2948006957175362</v>
+      </c>
+      <c r="Q31">
+        <v>0.438547457368</v>
+      </c>
+      <c r="R31">
+        <v>3.946927116312</v>
+      </c>
+      <c r="S31">
+        <v>4.76595191133765E-05</v>
+      </c>
+      <c r="T31">
+        <v>4.765951911337648E-05</v>
       </c>
     </row>
   </sheetData>
